--- a/biology/Zoologie/Abalistes_stellatus/Abalistes_stellatus.xlsx
+++ b/biology/Zoologie/Abalistes_stellatus/Abalistes_stellatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abalistes stellatus ou Baliste étoilé est une espèce marine de poissons de la famille des Balistidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La mention « Anonymous in Lacepède ex Commerson » signifie qu'une personne inconnue, sur la base des notes manuscrites faites par Philibert Commerson, aura fait la description de cette espèce, description que Bernard-Germain de Lacépède aura reprise dans son livre.
 </t>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin stellatus, « semé d'étoiles », latinise le nom commun donné par Lacépède dans son livre (« Baliste étoilé ») sur la base de couleurs agréablement dispersées[2].  
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin stellatus, « semé d'étoiles », latinise le nom commun donné par Lacépède dans son livre (« Baliste étoilé ») sur la base de couleurs agréablement dispersées.  
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Baliste étoilé se trouve le long des côtes dans les eaux tropicales de l'Indo-Pacifique (présence probable en Atlantique sud-est) à des profondeurs de 7 à 350 m mais généralement entre 7 et 100 m.
 Il vit près du fond où il "aménage" son habitat en déplaçant des graviers et des cailloux. Parfois il fait des incursions en pleine eau.
@@ -605,13 +623,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson généralement solitaire qui forme des couples pendant la période de reproduction.
-La taille maximale connue pour Abalistes stellatus est de 60 cm[3]. Sa taille de maturité est de 50 cm.  
+La taille maximale connue pour Abalistes stellatus est de 60 cm. Sa taille de maturité est de 50 cm.  
 Sa reproduction est ovipare avec 1 million d’œufs par ponte.  
 Il se nourrit d'invertébrés benthiques incluant les crevettes, les crabes, les oursins et les mollusques.  
-Sa longévité est de 8 ans[4].  
+Sa longévité est de 8 ans.  
 </t>
         </is>
       </c>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bernard-Germain de Lacépède, Histoire naturelle des poissons, t. 2, Paris, 1798, 415 p. (lire en ligne).</t>
         </is>
